--- a/VersionRecords/Version Order/版本Bug和特性计划及评审表v3.1.4_捷豹组.xlsx
+++ b/VersionRecords/Version Order/版本Bug和特性计划及评审表v3.1.4_捷豹组.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 3.1.4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version Order/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
-    <sheet name="版本3.1.4新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.2.0新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -153,19 +153,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>配置文件修改</t>
-    <rPh sb="0" eb="1">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wen'j</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiu'g</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>施超</t>
     <rPh sb="0" eb="1">
       <t>shi'chao</t>
@@ -180,32 +167,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>合同模板变更</t>
-    <rPh sb="2" eb="3">
-      <t>mo'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bian'geng</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC/租客APP/房东PC/房东APP/BS</t>
-    <rPh sb="0" eb="1">
-      <t>zu'ke</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zu'k</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>fang'dong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>袁冰秋</t>
     <rPh sb="0" eb="1">
       <t>y'b'q</t>
@@ -213,85 +174,213 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>捷豹组/磐石组</t>
+    <t>房东PC/房东APP</t>
+  </si>
+  <si>
+    <t>房东APP首页今日应收算法调整</t>
     <rPh sb="0" eb="1">
-      <t>jie'bao'z</t>
+      <t>fang'dong</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>pan'shi</t>
+    <rPh sb="5" eb="6">
+      <t>sho'y</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>zu</t>
+    <rPh sb="7" eb="8">
+      <t>jin'r</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying'shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>suan'f</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tiao'zh</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC/房东APP</t>
-  </si>
-  <si>
-    <t>租客注册来源统计</t>
-  </si>
-  <si>
-    <t>网商银行提现</t>
+    <t>房东APP</t>
     <rPh sb="0" eb="1">
-      <t>wang's</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yin'h</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ti'xian</t>
+      <t>fang'dong</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>架构组</t>
+    <t>可以上线</t>
     <rPh sb="0" eb="1">
-      <t>jia'gou'z</t>
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'x</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>樊黎</t>
+    <t>订单列表页</t>
     <rPh sb="0" eb="1">
-      <t>fan'li</t>
+      <t>ding'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>官网我的订单性能优化</t>
+    <t>电子租约详情</t>
     <rPh sb="0" eb="1">
-      <t>guan'wang</t>
+      <t>dian'zi</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>wo'd</t>
+      <t>zu'y</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ding'd</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xing'n</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>you'h</t>
+      <t>xiang'q</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>租客PC</t>
+    <t>纸质合同页</t>
     <rPh sb="0" eb="1">
-      <t>zu'k</t>
+      <t>zhi'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>捷豹组/架构组</t>
+    <t>电子合同页</t>
     <rPh sb="0" eb="1">
-      <t>jie'bao'z</t>
+      <t>dian'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he't</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>jia'gou'zu</t>
+      <t>ye</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志列表</t>
+    <rPh sb="0" eb="1">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志埋点</t>
+    <rPh sb="0" eb="1">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mai'dian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约人/入住人调整</t>
+    <rPh sb="0" eb="1">
+      <t>qian'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ru'zhu'r</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tiao'zh</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC/房东APP/租客PC/租客APP/BS</t>
+    <rPh sb="11" eb="12">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zu'ke</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史数据处理</t>
+    <rPh sb="0" eb="1">
+      <t>li'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅/武孟华/王友旺</t>
+    <rPh sb="0" eb="1">
+      <t>wang'xiang'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>w'm'h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wang'you'w</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武孟华</t>
+    <rPh sb="0" eb="1">
+      <t>w'm'h</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉/王祥毅/王友旺</t>
+    <rPh sb="0" eb="1">
+      <t>wang'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wang'xiang'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wang'you'w</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在测</t>
+    <rPh sb="0" eb="1">
+      <t>zai'ce</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cntr_SaleContractUserRel表中补全合同中的租客信息.sql</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="299">
+  <cellStyleXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1509,126 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1540,7 +1749,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="299">
+  <cellStyles count="339">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1693,6 +1902,26 @@
     <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1840,6 +2069,26 @@
     <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2185,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2273,47 +2522,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="37">
-        <v>42525</v>
+        <v>42533</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="37">
-        <v>42525</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>33</v>
-      </c>
+        <v>42533</v>
+      </c>
+      <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="37">
+        <v>42534</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -2326,40 +2577,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="37">
-        <v>42525</v>
+        <v>42533</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="37">
-        <v>42525</v>
+        <v>42535</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="N3" s="37">
+        <v>42534</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
@@ -2372,39 +2627,41 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="37">
-        <v>42523</v>
+        <v>42533</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="37">
-        <v>42523</v>
+        <v>42535</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="K4" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="O4" s="14"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -2416,41 +2673,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="37">
-        <v>42525</v>
+        <v>42535</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="37">
-        <v>42525</v>
+        <v>42535</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="N5" s="13"/>
-      <c r="O5" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
@@ -2461,18 +2718,40 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="37">
+        <v>42535</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="37">
+        <v>42535</v>
+      </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
       <c r="P6" s="22"/>
@@ -2485,18 +2764,40 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="37">
+        <v>42535</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="37">
+        <v>42535</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="22"/>
@@ -2505,22 +2806,44 @@
       <c r="S7" s="35"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="B8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="37">
+        <v>42535</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="37">
+        <v>42535</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="N8" s="13"/>
       <c r="O8" s="14"/>
       <c r="P8" s="22"/>
@@ -2533,24 +2856,52 @@
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
+      <c r="B9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="37">
+        <v>42535</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="37">
+        <v>42535</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="18"/>
+      <c r="R9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.15">
